--- a/data/pca/factorExposure/factorExposure_2018-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01399293302495388</v>
+        <v>-0.01555738257198229</v>
       </c>
       <c r="C2">
-        <v>-0.02808940916922383</v>
+        <v>0.006199612439986159</v>
       </c>
       <c r="D2">
-        <v>-0.02853338067348639</v>
+        <v>-0.03799786707026578</v>
       </c>
       <c r="E2">
-        <v>0.004332023688578307</v>
+        <v>-0.01886578988300314</v>
       </c>
       <c r="F2">
-        <v>0.09463190641991387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.002380655335719601</v>
+      </c>
+      <c r="G2">
+        <v>0.0307426186676068</v>
+      </c>
+      <c r="H2">
+        <v>-0.04942663795348921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08950759831760827</v>
+        <v>-0.06790224074333812</v>
       </c>
       <c r="C3">
-        <v>-0.04530206616067192</v>
+        <v>0.05675193355825365</v>
       </c>
       <c r="D3">
-        <v>-0.02067332795518657</v>
+        <v>-0.05690523708834282</v>
       </c>
       <c r="E3">
-        <v>0.04274360677111141</v>
+        <v>-0.007977006142236964</v>
       </c>
       <c r="F3">
-        <v>0.3391193879383524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04292314463245642</v>
+      </c>
+      <c r="G3">
+        <v>0.1415473766342373</v>
+      </c>
+      <c r="H3">
+        <v>-0.1187539656253047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04528633503262064</v>
+        <v>-0.03589810864067947</v>
       </c>
       <c r="C4">
-        <v>-0.01549377662299688</v>
+        <v>0.03525696133422893</v>
       </c>
       <c r="D4">
-        <v>-0.03941182345185074</v>
+        <v>-0.05617106224749846</v>
       </c>
       <c r="E4">
-        <v>-0.0335136825836083</v>
+        <v>0.01679268617401228</v>
       </c>
       <c r="F4">
-        <v>0.06205084886911397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03306136671604953</v>
+      </c>
+      <c r="G4">
+        <v>0.04204575661613701</v>
+      </c>
+      <c r="H4">
+        <v>-0.06046175755703441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03338990988457158</v>
+        <v>-0.01906771616791071</v>
       </c>
       <c r="C6">
-        <v>-0.01315984106842011</v>
+        <v>0.03750868540678967</v>
       </c>
       <c r="D6">
-        <v>-0.03904283634191235</v>
+        <v>-0.05269362772487839</v>
       </c>
       <c r="E6">
-        <v>-0.02098918848331443</v>
+        <v>0.005791108808317889</v>
       </c>
       <c r="F6">
-        <v>0.01011544146875188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0283316233407738</v>
+      </c>
+      <c r="G6">
+        <v>0.014720697374991</v>
+      </c>
+      <c r="H6">
+        <v>-0.06145866135509966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03818596958503596</v>
+        <v>-0.008234080601692876</v>
       </c>
       <c r="C7">
-        <v>0.02759991843485986</v>
+        <v>0.0199099792104448</v>
       </c>
       <c r="D7">
-        <v>-0.03737892973019039</v>
+        <v>-0.03324895474253529</v>
       </c>
       <c r="E7">
-        <v>-0.01679709370164701</v>
+        <v>0.04297603069000143</v>
       </c>
       <c r="F7">
-        <v>0.03730942975821074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.004405182993073644</v>
+      </c>
+      <c r="G7">
+        <v>0.02041420153368906</v>
+      </c>
+      <c r="H7">
+        <v>-0.03768971441031963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01679032447306373</v>
+        <v>-0.002681345514937159</v>
       </c>
       <c r="C8">
-        <v>-0.0013295052495069</v>
+        <v>0.008891984003255337</v>
       </c>
       <c r="D8">
-        <v>-0.04674876594029029</v>
+        <v>-0.009616876191730428</v>
       </c>
       <c r="E8">
-        <v>-0.02227322724681137</v>
+        <v>0.009681743167050755</v>
       </c>
       <c r="F8">
-        <v>0.05987788583915338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.006378561597726245</v>
+      </c>
+      <c r="G8">
+        <v>0.03665017516778666</v>
+      </c>
+      <c r="H8">
+        <v>-0.03625625304240342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0337179636578625</v>
+        <v>-0.02616407697055899</v>
       </c>
       <c r="C9">
-        <v>-0.01032204238977217</v>
+        <v>0.02804696389667994</v>
       </c>
       <c r="D9">
-        <v>-0.03462509913728221</v>
+        <v>-0.04101023344097177</v>
       </c>
       <c r="E9">
-        <v>-0.01366674110856964</v>
+        <v>0.006373591968467226</v>
       </c>
       <c r="F9">
-        <v>0.07823508218499112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.007567099910947036</v>
+      </c>
+      <c r="G9">
+        <v>0.04135203572003738</v>
+      </c>
+      <c r="H9">
+        <v>-0.05624761213053625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04031549686807766</v>
+        <v>-0.1347866150248999</v>
       </c>
       <c r="C10">
-        <v>-0.00153788576535834</v>
+        <v>-0.08473110593519305</v>
       </c>
       <c r="D10">
-        <v>0.1458141395503633</v>
+        <v>0.1195537283309098</v>
       </c>
       <c r="E10">
-        <v>0.04462729099639944</v>
+        <v>-0.001564547628545377</v>
       </c>
       <c r="F10">
-        <v>0.06601633734760269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04070634412620774</v>
+      </c>
+      <c r="G10">
+        <v>0.02608735151101778</v>
+      </c>
+      <c r="H10">
+        <v>0.007259893380987949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03161967675126942</v>
+        <v>-0.0164944267933082</v>
       </c>
       <c r="C11">
-        <v>-0.02288310877226183</v>
+        <v>0.03804330779601722</v>
       </c>
       <c r="D11">
-        <v>-0.03911821009974378</v>
+        <v>-0.03400501452960969</v>
       </c>
       <c r="E11">
-        <v>-0.0173529568882103</v>
+        <v>-0.00151787852577317</v>
       </c>
       <c r="F11">
-        <v>0.02609573181134626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.007505920444469362</v>
+      </c>
+      <c r="G11">
+        <v>0.01834919933288934</v>
+      </c>
+      <c r="H11">
+        <v>-0.05249515685572721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04291407442905893</v>
+        <v>-0.02030258730658338</v>
       </c>
       <c r="C12">
-        <v>-0.02197000438853861</v>
+        <v>0.0342898596360534</v>
       </c>
       <c r="D12">
-        <v>-0.03217192453157784</v>
+        <v>-0.03543315497615756</v>
       </c>
       <c r="E12">
-        <v>-0.02545772005130973</v>
+        <v>0.01133562364988957</v>
       </c>
       <c r="F12">
-        <v>0.0006065045659321046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01156633708504983</v>
+      </c>
+      <c r="G12">
+        <v>0.004737238626777602</v>
+      </c>
+      <c r="H12">
+        <v>-0.02128925730249528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01162081133556779</v>
+        <v>-0.02075210624594327</v>
       </c>
       <c r="C13">
-        <v>-0.02110840582806393</v>
+        <v>0.005337219317662086</v>
       </c>
       <c r="D13">
-        <v>-0.01347912617972139</v>
+        <v>-0.03109231504600651</v>
       </c>
       <c r="E13">
-        <v>-0.01003990962330943</v>
+        <v>-0.01291967061636883</v>
       </c>
       <c r="F13">
-        <v>0.0762079983035257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.009495464505727127</v>
+      </c>
+      <c r="G13">
+        <v>0.05431480979427064</v>
+      </c>
+      <c r="H13">
+        <v>-0.07630125627382223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02336139803306507</v>
+        <v>-0.01065408885198711</v>
       </c>
       <c r="C14">
-        <v>0.002256590360814761</v>
+        <v>0.01219808955435068</v>
       </c>
       <c r="D14">
-        <v>-0.02335375238042543</v>
+        <v>-0.018882549681233</v>
       </c>
       <c r="E14">
-        <v>-0.01974364052141743</v>
+        <v>0.01414015304445328</v>
       </c>
       <c r="F14">
-        <v>0.04820525503424075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.002890103720149628</v>
+      </c>
+      <c r="G14">
+        <v>0.03801807306959741</v>
+      </c>
+      <c r="H14">
+        <v>-0.01237471434065377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03347306254316871</v>
+        <v>-0.01847999816240782</v>
       </c>
       <c r="C16">
-        <v>-0.02302513548185017</v>
+        <v>0.03385003734043743</v>
       </c>
       <c r="D16">
-        <v>-0.04143565382169083</v>
+        <v>-0.02902766527886863</v>
       </c>
       <c r="E16">
-        <v>-0.02005369915866803</v>
+        <v>0.002741218850198207</v>
       </c>
       <c r="F16">
-        <v>0.02652329989728978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01014200872869297</v>
+      </c>
+      <c r="G16">
+        <v>0.01757008073125362</v>
+      </c>
+      <c r="H16">
+        <v>-0.03823880945254542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03546280183883409</v>
+        <v>-0.019395581407954</v>
       </c>
       <c r="C19">
-        <v>-0.01733546856595164</v>
+        <v>0.02666513076452087</v>
       </c>
       <c r="D19">
-        <v>-0.05177714246213555</v>
+        <v>-0.0387342763792752</v>
       </c>
       <c r="E19">
-        <v>-0.03206351568141736</v>
+        <v>0.01122414464106266</v>
       </c>
       <c r="F19">
-        <v>0.07688267208635516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01253637592029778</v>
+      </c>
+      <c r="G19">
+        <v>0.05359926232066076</v>
+      </c>
+      <c r="H19">
+        <v>-0.05757718538748904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003882523833202619</v>
+        <v>-0.005712935031839356</v>
       </c>
       <c r="C20">
-        <v>0.007093350873442881</v>
+        <v>0.009186129895371643</v>
       </c>
       <c r="D20">
-        <v>-0.008035352270880765</v>
+        <v>-0.02210084278023722</v>
       </c>
       <c r="E20">
-        <v>-0.01303216148311932</v>
+        <v>0.004550583764233635</v>
       </c>
       <c r="F20">
-        <v>0.05304025940246129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.001296050043217724</v>
+      </c>
+      <c r="G20">
+        <v>0.04742033863870853</v>
+      </c>
+      <c r="H20">
+        <v>-0.02876282581770333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0186395864457004</v>
+        <v>-0.01254542258276671</v>
       </c>
       <c r="C21">
-        <v>0.01569889301085304</v>
+        <v>0.008007474173988985</v>
       </c>
       <c r="D21">
-        <v>-0.03676726248143644</v>
+        <v>-0.02359787843686769</v>
       </c>
       <c r="E21">
-        <v>-0.002002567010184494</v>
+        <v>0.01683164665251554</v>
       </c>
       <c r="F21">
-        <v>0.02788594163133665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.007596951529892818</v>
+      </c>
+      <c r="G21">
+        <v>0.03867901545133792</v>
+      </c>
+      <c r="H21">
+        <v>-0.05362808024615246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03077475659711058</v>
+        <v>-0.01341684817907976</v>
       </c>
       <c r="C24">
-        <v>-0.02103628220241137</v>
+        <v>0.0297256036495434</v>
       </c>
       <c r="D24">
-        <v>-0.02298196846111307</v>
+        <v>-0.0328431246700231</v>
       </c>
       <c r="E24">
-        <v>-0.01622260395655682</v>
+        <v>0.0006477804102410699</v>
       </c>
       <c r="F24">
-        <v>0.03023178787264048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.006081835547172365</v>
+      </c>
+      <c r="G24">
+        <v>0.01204263911541078</v>
+      </c>
+      <c r="H24">
+        <v>-0.04658092500756429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03432721185476971</v>
+        <v>-0.02707318160935663</v>
       </c>
       <c r="C25">
-        <v>-0.01917431017515911</v>
+        <v>0.03105984722659048</v>
       </c>
       <c r="D25">
-        <v>-0.03550742893486777</v>
+        <v>-0.03781871002424917</v>
       </c>
       <c r="E25">
-        <v>-0.01368806627497546</v>
+        <v>0.006765616349958883</v>
       </c>
       <c r="F25">
-        <v>0.03290993438060816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01515197481783123</v>
+      </c>
+      <c r="G25">
+        <v>0.0153435486770647</v>
+      </c>
+      <c r="H25">
+        <v>-0.04690869331857553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01796221409346735</v>
+        <v>-0.01306599158198899</v>
       </c>
       <c r="C26">
-        <v>-0.01179410788786906</v>
+        <v>-0.007584155412487518</v>
       </c>
       <c r="D26">
-        <v>-0.02399174895539079</v>
+        <v>-0.02172756577310994</v>
       </c>
       <c r="E26">
-        <v>0.003321431092677972</v>
+        <v>0.0002096005284366481</v>
       </c>
       <c r="F26">
-        <v>0.04978475725883735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00348713061704765</v>
+      </c>
+      <c r="G26">
+        <v>0.0228140466052369</v>
+      </c>
+      <c r="H26">
+        <v>-0.02173582855094557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03911649867099324</v>
+        <v>-0.01447702292287139</v>
       </c>
       <c r="C27">
-        <v>-0.01843969353509391</v>
+        <v>0.01280114856148284</v>
       </c>
       <c r="D27">
-        <v>-0.00719161388515973</v>
+        <v>-0.008167238025096691</v>
       </c>
       <c r="E27">
-        <v>-0.03026445127811937</v>
+        <v>0.006182555457878847</v>
       </c>
       <c r="F27">
-        <v>0.01516335718213417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.004802491904650968</v>
+      </c>
+      <c r="G27">
+        <v>0.008737166743105441</v>
+      </c>
+      <c r="H27">
+        <v>0.001898277005270218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07214457528722555</v>
+        <v>-0.1871902307209699</v>
       </c>
       <c r="C28">
-        <v>-0.004588135887683673</v>
+        <v>-0.1197758496564289</v>
       </c>
       <c r="D28">
-        <v>0.2109513308793681</v>
+        <v>0.1483802431255546</v>
       </c>
       <c r="E28">
-        <v>0.07154844103968828</v>
+        <v>0.01109995088040553</v>
       </c>
       <c r="F28">
-        <v>0.06519726411181075</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03727203744798131</v>
+      </c>
+      <c r="G28">
+        <v>0.01484678530563001</v>
+      </c>
+      <c r="H28">
+        <v>0.009848160275395383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02500929164596232</v>
+        <v>-0.01608416153699375</v>
       </c>
       <c r="C29">
-        <v>0.001416091005764425</v>
+        <v>0.01194082430200201</v>
       </c>
       <c r="D29">
-        <v>-0.02671740153553434</v>
+        <v>-0.01680877625106618</v>
       </c>
       <c r="E29">
-        <v>-0.02110922948034878</v>
+        <v>0.01353128708738577</v>
       </c>
       <c r="F29">
-        <v>0.04485900629774722</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.002164532380125439</v>
+      </c>
+      <c r="G29">
+        <v>0.03770616003685622</v>
+      </c>
+      <c r="H29">
+        <v>-0.0082736165978718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05293223681081068</v>
+        <v>-0.03476706267598532</v>
       </c>
       <c r="C30">
-        <v>-0.07452155147380629</v>
+        <v>0.05438919317475455</v>
       </c>
       <c r="D30">
-        <v>-0.06255412799869346</v>
+        <v>-0.07944470664264497</v>
       </c>
       <c r="E30">
-        <v>-0.03861962960792949</v>
+        <v>-0.03151591360144978</v>
       </c>
       <c r="F30">
-        <v>0.08232832620748476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0320847917824813</v>
+      </c>
+      <c r="G30">
+        <v>0.05650623158262425</v>
+      </c>
+      <c r="H30">
+        <v>-0.07656516476876001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05473833654868364</v>
+        <v>-0.04445327964523147</v>
       </c>
       <c r="C31">
-        <v>-0.03665957897850293</v>
+        <v>0.02591711654734533</v>
       </c>
       <c r="D31">
-        <v>-0.02311385883174058</v>
+        <v>-0.0210044548765243</v>
       </c>
       <c r="E31">
-        <v>-0.01910212915062908</v>
+        <v>-0.001602355235737304</v>
       </c>
       <c r="F31">
-        <v>0.02746483718695764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.00148721383451887</v>
+      </c>
+      <c r="G31">
+        <v>0.01540103828126991</v>
+      </c>
+      <c r="H31">
+        <v>-0.00490641821338213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02460236760986932</v>
+        <v>-0.008347709954295318</v>
       </c>
       <c r="C32">
-        <v>0.0133303350597815</v>
+        <v>0.01875187586769549</v>
       </c>
       <c r="D32">
-        <v>-0.06114757636160222</v>
+        <v>-0.003928754720193088</v>
       </c>
       <c r="E32">
-        <v>-0.03445492157063897</v>
+        <v>0.03060286134978192</v>
       </c>
       <c r="F32">
-        <v>0.04095827728196424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02822416141653722</v>
+      </c>
+      <c r="G32">
+        <v>0.04098496727636182</v>
+      </c>
+      <c r="H32">
+        <v>-0.05119989513413466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03403937002390475</v>
+        <v>-0.02189335551519229</v>
       </c>
       <c r="C33">
-        <v>-0.04359183354595206</v>
+        <v>0.02982002402235508</v>
       </c>
       <c r="D33">
-        <v>-0.05465724115106869</v>
+        <v>-0.04148389299613428</v>
       </c>
       <c r="E33">
-        <v>-0.001507167783897935</v>
+        <v>-0.01977402566193459</v>
       </c>
       <c r="F33">
-        <v>0.06048299146633108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.00938235474258352</v>
+      </c>
+      <c r="G33">
+        <v>0.03670656446857348</v>
+      </c>
+      <c r="H33">
+        <v>-0.05360555388931684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03722103580215655</v>
+        <v>-0.0247365300917574</v>
       </c>
       <c r="C34">
-        <v>-0.01552460419455215</v>
+        <v>0.04390689768693625</v>
       </c>
       <c r="D34">
-        <v>-0.04424022963691882</v>
+        <v>-0.02779431726472183</v>
       </c>
       <c r="E34">
-        <v>-0.02866874508037206</v>
+        <v>0.01395488137694036</v>
       </c>
       <c r="F34">
-        <v>0.02608754804318536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01655684068167599</v>
+      </c>
+      <c r="G34">
+        <v>0.008019425670767747</v>
+      </c>
+      <c r="H34">
+        <v>-0.03767863416055271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0187615218372448</v>
+        <v>-0.01601587799408178</v>
       </c>
       <c r="C36">
-        <v>-0.000557751660823153</v>
+        <v>-0.0008294478408963819</v>
       </c>
       <c r="D36">
-        <v>-0.016085153951571</v>
+        <v>-0.01040343691717461</v>
       </c>
       <c r="E36">
-        <v>-0.009614425971123251</v>
+        <v>0.00764273272298254</v>
       </c>
       <c r="F36">
-        <v>0.02754642148387453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002909039328857124</v>
+      </c>
+      <c r="G36">
+        <v>0.01602890138712908</v>
+      </c>
+      <c r="H36">
+        <v>-0.01773485509798783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009945109949180832</v>
+        <v>-0.02555160749195056</v>
       </c>
       <c r="C38">
-        <v>-0.006204467929430559</v>
+        <v>0.02198995198072636</v>
       </c>
       <c r="D38">
-        <v>-0.003925685933354281</v>
+        <v>-0.004482007038447931</v>
       </c>
       <c r="E38">
-        <v>0.01773945342243788</v>
+        <v>0.0003576892093055072</v>
       </c>
       <c r="F38">
-        <v>0.04424979595504153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.003659669974535447</v>
+      </c>
+      <c r="G38">
+        <v>0.02083538397335628</v>
+      </c>
+      <c r="H38">
+        <v>-0.03659576860372572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03024645296245626</v>
+        <v>-0.006883464980978077</v>
       </c>
       <c r="C39">
-        <v>-0.0217464267438327</v>
+        <v>0.05817760582468657</v>
       </c>
       <c r="D39">
-        <v>-0.06011005791958926</v>
+        <v>-0.0673437878280387</v>
       </c>
       <c r="E39">
-        <v>-0.01910085244816996</v>
+        <v>-0.006086377745289692</v>
       </c>
       <c r="F39">
-        <v>0.04565089611097067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01073276220097333</v>
+      </c>
+      <c r="G39">
+        <v>0.02860510374192404</v>
+      </c>
+      <c r="H39">
+        <v>-0.08183055627148307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01958762914366803</v>
+        <v>-0.02613085290614935</v>
       </c>
       <c r="C40">
-        <v>-0.04923740293390905</v>
+        <v>0.01994550559385073</v>
       </c>
       <c r="D40">
-        <v>-0.02655224121728652</v>
+        <v>-0.02741536890541531</v>
       </c>
       <c r="E40">
-        <v>-0.02932854193214678</v>
+        <v>-0.02335184697462995</v>
       </c>
       <c r="F40">
-        <v>0.04040805296179265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02865767706543909</v>
+      </c>
+      <c r="G40">
+        <v>0.01510343744177792</v>
+      </c>
+      <c r="H40">
+        <v>-0.06064538719600086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007061227057417286</v>
+        <v>-0.01316763532754931</v>
       </c>
       <c r="C41">
-        <v>0.0004767327940501718</v>
+        <v>-0.007144342959603576</v>
       </c>
       <c r="D41">
-        <v>-0.007770894425250324</v>
+        <v>0.005115207416870429</v>
       </c>
       <c r="E41">
-        <v>0.0106706914638902</v>
+        <v>0.004082743462011483</v>
       </c>
       <c r="F41">
-        <v>0.002657466776838582</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006133102286368958</v>
+      </c>
+      <c r="G41">
+        <v>-0.003420118093831557</v>
+      </c>
+      <c r="H41">
+        <v>0.003326829470526046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2327364451541222</v>
+        <v>-0.1134622584174372</v>
       </c>
       <c r="C42">
-        <v>-0.2150061238953891</v>
+        <v>0.07784317502499276</v>
       </c>
       <c r="D42">
-        <v>-0.1915821938703591</v>
+        <v>-0.2379116519284944</v>
       </c>
       <c r="E42">
-        <v>0.8645674906941178</v>
+        <v>-0.2331461965041341</v>
       </c>
       <c r="F42">
-        <v>-0.2592181777608734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8189319385326285</v>
+      </c>
+      <c r="G42">
+        <v>-0.4223122594458182</v>
+      </c>
+      <c r="H42">
+        <v>-0.02170962295614239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006183663179457064</v>
+        <v>-0.01393790104488087</v>
       </c>
       <c r="C43">
-        <v>-0.003472157872639868</v>
+        <v>-0.007378766359849568</v>
       </c>
       <c r="D43">
-        <v>-0.01265946340040232</v>
+        <v>0.004245521571029408</v>
       </c>
       <c r="E43">
-        <v>0.00408302643969978</v>
+        <v>0.0001772678882238828</v>
       </c>
       <c r="F43">
-        <v>0.02268493274593153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00705820182044745</v>
+      </c>
+      <c r="G43">
+        <v>-0.0007973150876143657</v>
+      </c>
+      <c r="H43">
+        <v>-0.005082679134180521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02510589191717562</v>
+        <v>-0.01308261772847558</v>
       </c>
       <c r="C44">
-        <v>0.003292113243963254</v>
+        <v>0.02902603574439422</v>
       </c>
       <c r="D44">
-        <v>-0.03763410174938477</v>
+        <v>-0.03101641524401322</v>
       </c>
       <c r="E44">
-        <v>-4.102541453013825e-05</v>
+        <v>0.01371258325781425</v>
       </c>
       <c r="F44">
-        <v>0.09140638302516035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01205549317499727</v>
+      </c>
+      <c r="G44">
+        <v>0.03523379128280343</v>
+      </c>
+      <c r="H44">
+        <v>-0.06252027276128633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01933549886956985</v>
+        <v>-0.006098432930498767</v>
       </c>
       <c r="C46">
-        <v>-0.008941787471574593</v>
+        <v>0.005218143857070782</v>
       </c>
       <c r="D46">
-        <v>-0.06098491962616328</v>
+        <v>-0.01834745749397257</v>
       </c>
       <c r="E46">
-        <v>-0.0245158252572529</v>
+        <v>0.001684123300842504</v>
       </c>
       <c r="F46">
-        <v>0.06040065792257847</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.002159102586155937</v>
+      </c>
+      <c r="G46">
+        <v>0.03979522072250356</v>
+      </c>
+      <c r="H46">
+        <v>-0.0121517880776489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08129334025124201</v>
+        <v>-0.05953030596245817</v>
       </c>
       <c r="C47">
-        <v>-0.04855968664171693</v>
+        <v>0.05545815490095107</v>
       </c>
       <c r="D47">
-        <v>-0.01520776978202621</v>
+        <v>-0.03571742190615061</v>
       </c>
       <c r="E47">
-        <v>-0.02933414714519073</v>
+        <v>0.006375049101800905</v>
       </c>
       <c r="F47">
-        <v>0.003136516582058888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.008900514603933542</v>
+      </c>
+      <c r="G47">
+        <v>-0.002770389578523819</v>
+      </c>
+      <c r="H47">
+        <v>0.03038640994272014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01899532103154863</v>
+        <v>-0.01720216829030793</v>
       </c>
       <c r="C48">
-        <v>-0.01148184397357939</v>
+        <v>0.01282244182216136</v>
       </c>
       <c r="D48">
-        <v>-0.0236850442037349</v>
+        <v>-0.01022017456169432</v>
       </c>
       <c r="E48">
-        <v>-0.009682469827194416</v>
+        <v>0.0008698281655704151</v>
       </c>
       <c r="F48">
-        <v>0.03260714947389804</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.001648268270416425</v>
+      </c>
+      <c r="G48">
+        <v>0.0166857642815648</v>
+      </c>
+      <c r="H48">
+        <v>-0.02152290248507922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08525142028343315</v>
+        <v>-0.06316277214889043</v>
       </c>
       <c r="C50">
-        <v>-0.03201323709070051</v>
+        <v>0.0522267535051963</v>
       </c>
       <c r="D50">
-        <v>-0.03471457569741479</v>
+        <v>-0.03463879758189669</v>
       </c>
       <c r="E50">
-        <v>-0.02204891169119428</v>
+        <v>0.01764874402699911</v>
       </c>
       <c r="F50">
-        <v>0.01497296023572688</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.001890923912253352</v>
+      </c>
+      <c r="G50">
+        <v>0.005721419337921301</v>
+      </c>
+      <c r="H50">
+        <v>0.01727230359304835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02199410174119776</v>
+        <v>-0.01588287085953006</v>
       </c>
       <c r="C51">
-        <v>-0.005507249921794978</v>
+        <v>0.00625947759754697</v>
       </c>
       <c r="D51">
-        <v>-0.001661100610043085</v>
+        <v>-0.01160037712861911</v>
       </c>
       <c r="E51">
-        <v>-0.00411067490919708</v>
+        <v>0.008063204892211736</v>
       </c>
       <c r="F51">
-        <v>0.08221241148660793</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.004405332480004027</v>
+      </c>
+      <c r="G51">
+        <v>0.02996207169129311</v>
+      </c>
+      <c r="H51">
+        <v>-0.04619846012033679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09074614697476294</v>
+        <v>-0.0760313066163001</v>
       </c>
       <c r="C53">
-        <v>-0.05257906816467009</v>
+        <v>0.08224183448708695</v>
       </c>
       <c r="D53">
-        <v>-0.03861159747162111</v>
+        <v>-0.05935087770004529</v>
       </c>
       <c r="E53">
-        <v>-0.03974069529845676</v>
+        <v>0.01061141239987746</v>
       </c>
       <c r="F53">
-        <v>-0.03865490577672251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02778910160682982</v>
+      </c>
+      <c r="G53">
+        <v>-0.02410510510724545</v>
+      </c>
+      <c r="H53">
+        <v>0.02754173629417304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02588570072211291</v>
+        <v>-0.02484856822584177</v>
       </c>
       <c r="C54">
-        <v>-0.002223239274040022</v>
+        <v>0.00480071495118984</v>
       </c>
       <c r="D54">
-        <v>-0.002393900274311134</v>
+        <v>0.005595768714370191</v>
       </c>
       <c r="E54">
-        <v>-0.01502726979901655</v>
+        <v>0.006099833514349319</v>
       </c>
       <c r="F54">
-        <v>0.02984596273089049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.006404831379139835</v>
+      </c>
+      <c r="G54">
+        <v>0.03761239223378126</v>
+      </c>
+      <c r="H54">
+        <v>-0.001142438973891724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08841591076261024</v>
+        <v>-0.05875279033328436</v>
       </c>
       <c r="C55">
-        <v>-0.04786423598286042</v>
+        <v>0.07453301017248677</v>
       </c>
       <c r="D55">
-        <v>-0.04408088768330541</v>
+        <v>-0.05541223868290593</v>
       </c>
       <c r="E55">
-        <v>-0.03280289409677544</v>
+        <v>0.01011113886367818</v>
       </c>
       <c r="F55">
-        <v>-0.04075931661138781</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01590731621289192</v>
+      </c>
+      <c r="G55">
+        <v>-0.008241117880633265</v>
+      </c>
+      <c r="H55">
+        <v>0.0368944705592024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1271284019047509</v>
+        <v>-0.1010240876835112</v>
       </c>
       <c r="C56">
-        <v>-0.07908727723457538</v>
+        <v>0.1095433567802186</v>
       </c>
       <c r="D56">
-        <v>-0.02496290730824025</v>
+        <v>-0.07119385875273145</v>
       </c>
       <c r="E56">
-        <v>-0.08131940620772363</v>
+        <v>0.01129195750737097</v>
       </c>
       <c r="F56">
-        <v>-0.06846491521404924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05526110721589821</v>
+      </c>
+      <c r="G56">
+        <v>-0.04689128645523397</v>
+      </c>
+      <c r="H56">
+        <v>0.06620943792256873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04334521776176741</v>
+        <v>-0.02937710461405672</v>
       </c>
       <c r="C57">
-        <v>-0.03432156956535805</v>
+        <v>0.01247490212932695</v>
       </c>
       <c r="D57">
-        <v>-0.0224381423874961</v>
+        <v>-0.03981997902912347</v>
       </c>
       <c r="E57">
-        <v>0.01459234373857439</v>
+        <v>-0.009699966702703629</v>
       </c>
       <c r="F57">
-        <v>0.04737429726091117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01215857750703693</v>
+      </c>
+      <c r="G57">
+        <v>0.06137285238688282</v>
+      </c>
+      <c r="H57">
+        <v>-0.05437703067205511</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1501221513461008</v>
+        <v>-0.09986339772180075</v>
       </c>
       <c r="C58">
-        <v>-0.2074952966625656</v>
+        <v>0.1395384154698348</v>
       </c>
       <c r="D58">
-        <v>-0.2269681269613507</v>
+        <v>-0.1271393053317861</v>
       </c>
       <c r="E58">
-        <v>-0.01670240354626462</v>
+        <v>-0.2832867100649277</v>
       </c>
       <c r="F58">
-        <v>0.5225441193168018</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2731566702190761</v>
+      </c>
+      <c r="G58">
+        <v>0.792442044042558</v>
+      </c>
+      <c r="H58">
+        <v>0.3023940699866922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05406487650130182</v>
+        <v>-0.1992973270633977</v>
       </c>
       <c r="C59">
-        <v>-0.0267652304658062</v>
+        <v>-0.1085983383766694</v>
       </c>
       <c r="D59">
-        <v>0.1818936227063146</v>
+        <v>0.1483237275632994</v>
       </c>
       <c r="E59">
-        <v>0.02991702181304217</v>
+        <v>-0.008386815465803388</v>
       </c>
       <c r="F59">
-        <v>0.0915209364860074</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.004267512858158017</v>
+      </c>
+      <c r="G59">
+        <v>0.01742545033735859</v>
+      </c>
+      <c r="H59">
+        <v>-0.0198460369476739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1333646486263115</v>
+        <v>-0.2085910789705426</v>
       </c>
       <c r="C60">
-        <v>-0.1130740720331614</v>
+        <v>0.04895001996926116</v>
       </c>
       <c r="D60">
-        <v>0.004973797553095393</v>
+        <v>-0.0263981983945378</v>
       </c>
       <c r="E60">
-        <v>0.01570876930061219</v>
+        <v>-0.05254302403123752</v>
       </c>
       <c r="F60">
-        <v>0.1716148221926466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07705436390849539</v>
+      </c>
+      <c r="G60">
+        <v>0.01895480262941992</v>
+      </c>
+      <c r="H60">
+        <v>-0.3788009970374348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02224177160387531</v>
+        <v>-0.01459634418019292</v>
       </c>
       <c r="C61">
-        <v>-0.01128614629467498</v>
+        <v>0.04345915080595658</v>
       </c>
       <c r="D61">
-        <v>-0.04447806927233489</v>
+        <v>-0.04274430417881268</v>
       </c>
       <c r="E61">
-        <v>-0.009705180110786759</v>
+        <v>0.003814274889856871</v>
       </c>
       <c r="F61">
-        <v>0.0162013186941223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01559595593662407</v>
+      </c>
+      <c r="G61">
+        <v>0.02054462736885262</v>
+      </c>
+      <c r="H61">
+        <v>-0.05843398432389546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01546034617994731</v>
+        <v>-0.007608035270006025</v>
       </c>
       <c r="C63">
-        <v>-0.005157045621369929</v>
+        <v>0.0120998803253209</v>
       </c>
       <c r="D63">
-        <v>-0.0263850760094743</v>
+        <v>-0.02048815949013055</v>
       </c>
       <c r="E63">
-        <v>-0.001433147346242677</v>
+        <v>0.008628294081264691</v>
       </c>
       <c r="F63">
-        <v>0.004396848873714843</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.001952849355178321</v>
+      </c>
+      <c r="G63">
+        <v>0.01274959741560024</v>
+      </c>
+      <c r="H63">
+        <v>-0.01538378654087251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03531234506461516</v>
+        <v>-0.03634172844669378</v>
       </c>
       <c r="C64">
-        <v>-0.002122206214172076</v>
+        <v>0.03131192983998687</v>
       </c>
       <c r="D64">
-        <v>-0.03356129904994079</v>
+        <v>-0.02906647648211891</v>
       </c>
       <c r="E64">
-        <v>-0.01905383949445881</v>
+        <v>0.01607143276683832</v>
       </c>
       <c r="F64">
-        <v>0.0168713376628997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005821784860923549</v>
+      </c>
+      <c r="G64">
+        <v>-0.01176962900011009</v>
+      </c>
+      <c r="H64">
+        <v>-0.05021273747322148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03706947382069459</v>
+        <v>-0.0372308485855288</v>
       </c>
       <c r="C65">
-        <v>-0.01448037601724403</v>
+        <v>0.04833243107496513</v>
       </c>
       <c r="D65">
-        <v>-0.03929404983900304</v>
+        <v>-0.06130344416999715</v>
       </c>
       <c r="E65">
-        <v>-0.02315481558996215</v>
+        <v>0.008938954677981474</v>
       </c>
       <c r="F65">
-        <v>0.003355861347835989</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04370064981854763</v>
+      </c>
+      <c r="G65">
+        <v>-0.0005775139494785612</v>
+      </c>
+      <c r="H65">
+        <v>-0.07230648061353817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03466881847448983</v>
+        <v>-0.0148258422016813</v>
       </c>
       <c r="C66">
-        <v>-0.03220737705979267</v>
+        <v>0.07773408433347415</v>
       </c>
       <c r="D66">
-        <v>-0.06595036078551512</v>
+        <v>-0.08171831375690902</v>
       </c>
       <c r="E66">
-        <v>-0.0414293834645271</v>
+        <v>-0.007091646963211858</v>
       </c>
       <c r="F66">
-        <v>0.03046299241071324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03368955625152384</v>
+      </c>
+      <c r="G66">
+        <v>0.02872632359253836</v>
+      </c>
+      <c r="H66">
+        <v>-0.08720183101552777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02057626748501659</v>
+        <v>-0.04664457814166271</v>
       </c>
       <c r="C67">
-        <v>-0.01672929542615434</v>
+        <v>0.0270426159233522</v>
       </c>
       <c r="D67">
-        <v>0.00668736466692123</v>
+        <v>-0.008473074534413014</v>
       </c>
       <c r="E67">
-        <v>0.007136255147670734</v>
+        <v>-0.001256126806170019</v>
       </c>
       <c r="F67">
-        <v>0.02732384049255719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01647622841905508</v>
+      </c>
+      <c r="G67">
+        <v>0.01390644583972905</v>
+      </c>
+      <c r="H67">
+        <v>-0.03448165303367716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06737101308905008</v>
+        <v>-0.2018361138266112</v>
       </c>
       <c r="C68">
-        <v>-0.02250692346373731</v>
+        <v>-0.143202696391198</v>
       </c>
       <c r="D68">
-        <v>0.2086329742530167</v>
+        <v>0.155197532378107</v>
       </c>
       <c r="E68">
-        <v>0.0430732302519484</v>
+        <v>-0.009649359443813415</v>
       </c>
       <c r="F68">
-        <v>0.08367516561924336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04668918001767418</v>
+      </c>
+      <c r="G68">
+        <v>0.02456742324867239</v>
+      </c>
+      <c r="H68">
+        <v>0.04427587637699969</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05921896328653342</v>
+        <v>-0.05801929461734542</v>
       </c>
       <c r="C69">
-        <v>-0.03807178716996539</v>
+        <v>0.0529489563680324</v>
       </c>
       <c r="D69">
-        <v>-0.018118139627955</v>
+        <v>-0.02760544864986069</v>
       </c>
       <c r="E69">
-        <v>-0.03782896963943795</v>
+        <v>0.005634700263900418</v>
       </c>
       <c r="F69">
-        <v>0.005545002348469706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02866109176711297</v>
+      </c>
+      <c r="G69">
+        <v>-0.006793600371163206</v>
+      </c>
+      <c r="H69">
+        <v>-0.009780090270739381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07680937331425369</v>
+        <v>-0.1820521200692693</v>
       </c>
       <c r="C71">
-        <v>-0.03297900846287186</v>
+        <v>-0.1080204754436213</v>
       </c>
       <c r="D71">
-        <v>0.211928158551805</v>
+        <v>0.1286792508110428</v>
       </c>
       <c r="E71">
-        <v>0.07852446726601239</v>
+        <v>-0.01390306698693661</v>
       </c>
       <c r="F71">
-        <v>0.08746576003066818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05824615280521196</v>
+      </c>
+      <c r="G71">
+        <v>0.02708587141655119</v>
+      </c>
+      <c r="H71">
+        <v>0.02363252877024739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09915342435491933</v>
+        <v>-0.06067330994747317</v>
       </c>
       <c r="C72">
-        <v>-0.07853945031873819</v>
+        <v>0.09002648813165649</v>
       </c>
       <c r="D72">
-        <v>-0.07033834846711357</v>
+        <v>-0.06084014114036698</v>
       </c>
       <c r="E72">
-        <v>-0.08786207437442822</v>
+        <v>-0.01410183883788645</v>
       </c>
       <c r="F72">
-        <v>0.06583596231470681</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07068023693406238</v>
+      </c>
+      <c r="G72">
+        <v>0.03116954616439216</v>
+      </c>
+      <c r="H72">
+        <v>-0.1030498385326785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1720228855119998</v>
+        <v>-0.2725338022016121</v>
       </c>
       <c r="C73">
-        <v>-0.1830865119561922</v>
+        <v>0.09920777298618395</v>
       </c>
       <c r="D73">
-        <v>0.02207500373347454</v>
+        <v>-0.07550663760697049</v>
       </c>
       <c r="E73">
-        <v>0.05703943068961647</v>
+        <v>-0.09409750720005915</v>
       </c>
       <c r="F73">
-        <v>0.212336848583195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.0846689929589487</v>
+      </c>
+      <c r="G73">
+        <v>0.02569641305361296</v>
+      </c>
+      <c r="H73">
+        <v>-0.4826194512965903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.118136434999562</v>
+        <v>-0.0980644142876464</v>
       </c>
       <c r="C74">
-        <v>-0.07212902646237787</v>
+        <v>0.1123984234639493</v>
       </c>
       <c r="D74">
-        <v>-0.02527507838546557</v>
+        <v>-0.07520674437669256</v>
       </c>
       <c r="E74">
-        <v>-0.04469735920308843</v>
+        <v>0.01230081869934702</v>
       </c>
       <c r="F74">
-        <v>-0.07966136673713188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03911046867800261</v>
+      </c>
+      <c r="G74">
+        <v>-0.03394488255874894</v>
+      </c>
+      <c r="H74">
+        <v>0.03731680538870366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2033646684836616</v>
+        <v>-0.2011616915307135</v>
       </c>
       <c r="C75">
-        <v>-0.1404762731366565</v>
+        <v>0.1902068863553444</v>
       </c>
       <c r="D75">
-        <v>-0.02048705488866881</v>
+        <v>-0.1127593188222087</v>
       </c>
       <c r="E75">
-        <v>-0.1487650119445922</v>
+        <v>0.01034555531883606</v>
       </c>
       <c r="F75">
-        <v>-0.1262794743289039</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1042809140619461</v>
+      </c>
+      <c r="G75">
+        <v>-0.08223369801756221</v>
+      </c>
+      <c r="H75">
+        <v>0.1490861010601955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2508385381450118</v>
+        <v>-0.1591236582457196</v>
       </c>
       <c r="C76">
-        <v>-0.1256312057148564</v>
+        <v>0.1742761901268104</v>
       </c>
       <c r="D76">
-        <v>-0.024220428027856</v>
+        <v>-0.1058570537136029</v>
       </c>
       <c r="E76">
-        <v>-0.1792387592081267</v>
+        <v>0.0484934759910473</v>
       </c>
       <c r="F76">
-        <v>-0.2037823176635367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0925150941531509</v>
+      </c>
+      <c r="G76">
+        <v>-0.07076717399999005</v>
+      </c>
+      <c r="H76">
+        <v>0.1267246081187763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0972580178020015</v>
+        <v>-0.05297219985167249</v>
       </c>
       <c r="C77">
-        <v>-0.07494891405962593</v>
+        <v>0.06094440720170986</v>
       </c>
       <c r="D77">
-        <v>-0.1144416435923552</v>
+        <v>-0.06795240457285535</v>
       </c>
       <c r="E77">
-        <v>0.03939952991378471</v>
+        <v>-0.01901890089126189</v>
       </c>
       <c r="F77">
-        <v>0.1206459711939527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03592061052027336</v>
+      </c>
+      <c r="G77">
+        <v>0.06228320484514652</v>
+      </c>
+      <c r="H77">
+        <v>-0.02334028238105847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06141479910507693</v>
+        <v>-0.02893405691906838</v>
       </c>
       <c r="C78">
-        <v>-0.03078609622560308</v>
+        <v>0.05653670835651738</v>
       </c>
       <c r="D78">
-        <v>-0.1194428417728048</v>
+        <v>-0.05557548675509873</v>
       </c>
       <c r="E78">
-        <v>-0.03046308489955893</v>
+        <v>0.005771619729553406</v>
       </c>
       <c r="F78">
-        <v>0.07486387523317341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01068881561462887</v>
+      </c>
+      <c r="G78">
+        <v>0.05333583539430375</v>
+      </c>
+      <c r="H78">
+        <v>-0.09663411717495403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5746874037709329</v>
+        <v>-0.1102156173054589</v>
       </c>
       <c r="C80">
-        <v>0.7977838272854626</v>
+        <v>0.07858873838943571</v>
       </c>
       <c r="D80">
-        <v>-0.07484911725271702</v>
+        <v>-0.06594202328830942</v>
       </c>
       <c r="E80">
-        <v>0.04839987583991934</v>
+        <v>0.9092941846168977</v>
       </c>
       <c r="F80">
-        <v>0.04244856580884393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3009495647978864</v>
+      </c>
+      <c r="G80">
+        <v>0.1569672285703833</v>
+      </c>
+      <c r="H80">
+        <v>-0.02315677850775693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1612356353426866</v>
+        <v>-0.1317690763725659</v>
       </c>
       <c r="C81">
-        <v>-0.0957196839994577</v>
+        <v>0.1189568703358064</v>
       </c>
       <c r="D81">
-        <v>-0.007523043710855628</v>
+        <v>-0.07069719652671037</v>
       </c>
       <c r="E81">
-        <v>-0.1141306159935191</v>
+        <v>0.01752479474278079</v>
       </c>
       <c r="F81">
-        <v>-0.1145933804468127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05884580804103685</v>
+      </c>
+      <c r="G81">
+        <v>-0.04879509582034648</v>
+      </c>
+      <c r="H81">
+        <v>0.08138560571977253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03259696216704594</v>
+        <v>-0.02855902774955162</v>
       </c>
       <c r="C83">
-        <v>-0.02731909728619922</v>
+        <v>0.01918079532976772</v>
       </c>
       <c r="D83">
-        <v>-0.03084387676788339</v>
+        <v>-0.01976427284610274</v>
       </c>
       <c r="E83">
-        <v>0.01263966271571757</v>
+        <v>-0.007012173725733224</v>
       </c>
       <c r="F83">
-        <v>0.05548154240799575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.006993487979612961</v>
+      </c>
+      <c r="G83">
+        <v>0.03749894247771387</v>
+      </c>
+      <c r="H83">
+        <v>-0.04448077442457275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2251272555277612</v>
+        <v>-0.1907423675415773</v>
       </c>
       <c r="C85">
-        <v>-0.1402487074679876</v>
+        <v>0.1812455571654326</v>
       </c>
       <c r="D85">
-        <v>-0.02426670794557398</v>
+        <v>-0.1239089503107346</v>
       </c>
       <c r="E85">
-        <v>-0.1376456663501804</v>
+        <v>0.009240560973261773</v>
       </c>
       <c r="F85">
-        <v>-0.1568601904831413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1017000352063987</v>
+      </c>
+      <c r="G85">
+        <v>-0.1096401614584807</v>
+      </c>
+      <c r="H85">
+        <v>0.07409873882442022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01046699597390465</v>
+        <v>-0.0157669866147278</v>
       </c>
       <c r="C86">
-        <v>0.001121245588430847</v>
+        <v>0.02477947196221622</v>
       </c>
       <c r="D86">
-        <v>-0.08053738687457319</v>
+        <v>-0.03103208738457751</v>
       </c>
       <c r="E86">
-        <v>0.001217337688794414</v>
+        <v>0.006773780601047583</v>
       </c>
       <c r="F86">
-        <v>0.04599304418703333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01933908474625986</v>
+      </c>
+      <c r="G86">
+        <v>0.03375203472257914</v>
+      </c>
+      <c r="H86">
+        <v>-0.08417989518299455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03385201160670435</v>
+        <v>-0.01572844809792462</v>
       </c>
       <c r="C87">
-        <v>-0.01872341204429816</v>
+        <v>0.0280343781116622</v>
       </c>
       <c r="D87">
-        <v>-0.04305683893030128</v>
+        <v>-0.03533336108383153</v>
       </c>
       <c r="E87">
-        <v>-0.002003589054112326</v>
+        <v>-0.00143962325058409</v>
       </c>
       <c r="F87">
-        <v>0.1046806148392964</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.009872498538966483</v>
+      </c>
+      <c r="G87">
+        <v>0.0685626138162438</v>
+      </c>
+      <c r="H87">
+        <v>-0.08512924841757089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02095632334482192</v>
+        <v>-0.0405294210114243</v>
       </c>
       <c r="C88">
-        <v>0.003254195373751926</v>
+        <v>0.003554568235767989</v>
       </c>
       <c r="D88">
-        <v>0.004690602111052082</v>
+        <v>-0.02567344673003787</v>
       </c>
       <c r="E88">
-        <v>-0.01588411358024733</v>
+        <v>0.02198193022691108</v>
       </c>
       <c r="F88">
-        <v>-0.01830331752957544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01555925317958886</v>
+      </c>
+      <c r="G88">
+        <v>-0.00450045523942022</v>
+      </c>
+      <c r="H88">
+        <v>-0.008571819899770289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1025847784186606</v>
+        <v>-0.3083994522844142</v>
       </c>
       <c r="C89">
-        <v>-0.04949240549533671</v>
+        <v>-0.1934734482588534</v>
       </c>
       <c r="D89">
-        <v>0.3281322154095078</v>
+        <v>0.2268791829192161</v>
       </c>
       <c r="E89">
-        <v>0.04985818485872506</v>
+        <v>-0.01166986800762391</v>
       </c>
       <c r="F89">
-        <v>0.1153557891614969</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01524200864694477</v>
+      </c>
+      <c r="G89">
+        <v>-0.01702952903986844</v>
+      </c>
+      <c r="H89">
+        <v>0.004441960191146457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09039294580088202</v>
+        <v>-0.2586231804046501</v>
       </c>
       <c r="C90">
-        <v>-0.01943512195705262</v>
+        <v>-0.1800524316407596</v>
       </c>
       <c r="D90">
-        <v>0.3581023868908637</v>
+        <v>0.2107751757659279</v>
       </c>
       <c r="E90">
-        <v>0.07765280700790292</v>
+        <v>-0.004704306544968488</v>
       </c>
       <c r="F90">
-        <v>0.0575011491135801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05838713405092004</v>
+      </c>
+      <c r="G90">
+        <v>-0.007242217692860306</v>
+      </c>
+      <c r="H90">
+        <v>0.05820031869999073</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2546151653753094</v>
+        <v>-0.1972120106412302</v>
       </c>
       <c r="C91">
-        <v>-0.1795253249237631</v>
+        <v>0.1768339418705817</v>
       </c>
       <c r="D91">
-        <v>-0.01844928898987642</v>
+        <v>-0.1032991551876519</v>
       </c>
       <c r="E91">
-        <v>-0.1186367070195883</v>
+        <v>-0.001230492546733955</v>
       </c>
       <c r="F91">
-        <v>-0.2434803893224429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0868890048223981</v>
+      </c>
+      <c r="G91">
+        <v>-0.1008434242729587</v>
+      </c>
+      <c r="H91">
+        <v>0.1677799015535509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.156596762944496</v>
+        <v>-0.2806598144483297</v>
       </c>
       <c r="C92">
-        <v>-0.068380973196027</v>
+        <v>-0.07774767857354119</v>
       </c>
       <c r="D92">
-        <v>0.4307319764733897</v>
+        <v>0.1780283818971345</v>
       </c>
       <c r="E92">
-        <v>-0.0843949725796722</v>
+        <v>0.006383973764687668</v>
       </c>
       <c r="F92">
-        <v>-0.04257905770327901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.003002473830088218</v>
+      </c>
+      <c r="G92">
+        <v>0.03568776397506437</v>
+      </c>
+      <c r="H92">
+        <v>0.1558125999484642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08821360888215704</v>
+        <v>-0.2886302857549558</v>
       </c>
       <c r="C93">
-        <v>-0.05735009703883844</v>
+        <v>-0.1723553088342464</v>
       </c>
       <c r="D93">
-        <v>0.4276208597425055</v>
+        <v>0.21757526167226</v>
       </c>
       <c r="E93">
-        <v>0.1051261595377145</v>
+        <v>-0.03405497921252409</v>
       </c>
       <c r="F93">
-        <v>0.0766399205907429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04991469127751038</v>
+      </c>
+      <c r="G93">
+        <v>-0.01388411617922996</v>
+      </c>
+      <c r="H93">
+        <v>0.00187422373321753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2481242958836923</v>
+        <v>-0.247597387812263</v>
       </c>
       <c r="C94">
-        <v>-0.1845740410905508</v>
+        <v>0.1945168329378896</v>
       </c>
       <c r="D94">
-        <v>-0.01273279701968704</v>
+        <v>-0.1288002005616951</v>
       </c>
       <c r="E94">
-        <v>-0.223758153374353</v>
+        <v>-0.004905603023096618</v>
       </c>
       <c r="F94">
-        <v>-0.1984094325264548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2259707262394507</v>
+      </c>
+      <c r="G94">
+        <v>-0.1754884247400666</v>
+      </c>
+      <c r="H94">
+        <v>0.3870174111746018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01502555754418812</v>
+        <v>-0.03027625309469963</v>
       </c>
       <c r="C95">
-        <v>-0.08601434308778071</v>
+        <v>0.07933742423475848</v>
       </c>
       <c r="D95">
-        <v>-0.05266775597280012</v>
+        <v>-0.06005739169297512</v>
       </c>
       <c r="E95">
-        <v>-0.002085666951098758</v>
+        <v>-0.08191782169091251</v>
       </c>
       <c r="F95">
-        <v>0.01043570849872432</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01915815969925382</v>
+      </c>
+      <c r="G95">
+        <v>0.03916741404960274</v>
+      </c>
+      <c r="H95">
+        <v>-0.03832693436510447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1406981716236118</v>
+        <v>-0.1874063198405942</v>
       </c>
       <c r="C98">
-        <v>-0.1206297194609818</v>
+        <v>0.07265192250116685</v>
       </c>
       <c r="D98">
-        <v>0.01856758026320591</v>
+        <v>-0.01519405930779786</v>
       </c>
       <c r="E98">
-        <v>0.049649874571578</v>
+        <v>-0.06583025906185011</v>
       </c>
       <c r="F98">
-        <v>0.1768976108487438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01088987902744578</v>
+      </c>
+      <c r="G98">
+        <v>0.06186335678691918</v>
+      </c>
+      <c r="H98">
+        <v>-0.3326930047793637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01134084191136672</v>
+        <v>-0.00998338385308668</v>
       </c>
       <c r="C101">
-        <v>0.001416318589413658</v>
+        <v>0.01163409764669422</v>
       </c>
       <c r="D101">
-        <v>-0.06876118202492333</v>
+        <v>-0.01790242436444017</v>
       </c>
       <c r="E101">
-        <v>-0.0326687918510223</v>
+        <v>-0.0003414160901775325</v>
       </c>
       <c r="F101">
-        <v>0.1647246569440379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.00902139656814846</v>
+      </c>
+      <c r="G101">
+        <v>0.09619814976409646</v>
+      </c>
+      <c r="H101">
+        <v>0.007678785585165209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1015710493298401</v>
+        <v>-0.09375050350824905</v>
       </c>
       <c r="C102">
-        <v>-0.06003090751410155</v>
+        <v>0.07999491689781846</v>
       </c>
       <c r="D102">
-        <v>-0.01453115452559772</v>
+        <v>-0.06217445957661208</v>
       </c>
       <c r="E102">
-        <v>-0.07080786042581692</v>
+        <v>0.008796762452954916</v>
       </c>
       <c r="F102">
-        <v>-0.09506538279194673</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05446759240457673</v>
+      </c>
+      <c r="G102">
+        <v>-0.04990283321039051</v>
+      </c>
+      <c r="H102">
+        <v>0.06116774642093715</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04464138982598101</v>
+        <v>-0.01285699428029913</v>
       </c>
       <c r="C103">
-        <v>-0.01229858982699587</v>
+        <v>0.01511990355774191</v>
       </c>
       <c r="D103">
-        <v>-0.02355403195693974</v>
+        <v>-0.01168313047214467</v>
       </c>
       <c r="E103">
-        <v>-0.03626730437259579</v>
+        <v>0.01333296327362745</v>
       </c>
       <c r="F103">
-        <v>-0.01217821363803504</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.003016402697856916</v>
+      </c>
+      <c r="G103">
+        <v>0.005599222345585952</v>
+      </c>
+      <c r="H103">
+        <v>0.01434031544776002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1279427034403677</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.6948897103789167</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.6872121034738566</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03048840806944553</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1234508237327628</v>
+      </c>
+      <c r="G104">
+        <v>0.02538750371245911</v>
+      </c>
+      <c r="H104">
+        <v>0.0516412576109061</v>
       </c>
     </row>
   </sheetData>
